--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black-browed Albatross_Falkland Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black-browed Albatross_Falkland Islands.xlsx
@@ -4277,13 +4277,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8DB47A4-4E08-4634-A209-BC8633D27232}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE314FB-8433-4E48-9B48-A18F5F83D553}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A5DC3D-741E-4AFF-81B8-AB2BC1E7DE8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E67F9B69-273C-44DA-92C5-2B86E1970DF4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47EAA433-A492-40DC-BDD8-B374D9E21BF2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B0889B-7544-472B-BAE6-954D9E5A4F80}"/>
 </file>